--- a/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.917073793559865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.431734561163946</v>
+        <v>9.431734561163941</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.085555442354616</v>
@@ -655,7 +655,7 @@
         <v>2.943477770484798</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.488342691930569</v>
+        <v>4.488342691930564</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.952770775982994</v>
@@ -664,7 +664,7 @@
         <v>2.442613103557517</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.054694745668572</v>
+        <v>7.054694745668577</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.107674501359927</v>
+        <v>-2.593857310782773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.033370308180834</v>
+        <v>-2.422252090228469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.001385878752565</v>
+        <v>5.142261537330709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9805265452064156</v>
+        <v>-0.5965412296886542</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.426851506708743</v>
+        <v>-1.386172771366137</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2788957450406029</v>
+        <v>0.3673641682778235</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2008793584726143</v>
+        <v>-0.1408936113551658</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7200515538282578</v>
+        <v>-0.7438117030606705</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.035058854004111</v>
+        <v>3.575332174985949</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.469466546224736</v>
+        <v>6.067140606402396</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.323515882414658</v>
+        <v>5.991902457921646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.15330166059024</v>
+        <v>13.71465186916178</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.34651382751928</v>
+        <v>9.062761491019543</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.87770346162511</v>
+        <v>8.270213064163304</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.717763715428395</v>
+        <v>8.705944800400708</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.170630810010317</v>
+        <v>6.326110469633798</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.564511404499207</v>
+        <v>5.539571242516986</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.30873958398168</v>
+        <v>9.951173134012366</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.110840380380943</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5453191472980474</v>
+        <v>0.5453191472980471</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1501619673139934</v>
@@ -760,7 +760,7 @@
         <v>0.1081856357103476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1649661540784887</v>
+        <v>0.1649661540784885</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1328196113190329</v>
@@ -769,7 +769,7 @@
         <v>0.1098720312650353</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3173296829254178</v>
+        <v>0.3173296829254181</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1160828322546686</v>
+        <v>-0.1430158577930494</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1069238901360467</v>
+        <v>-0.12568188160616</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2558750039807198</v>
+        <v>0.2537266455324361</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03280620663531945</v>
+        <v>-0.02105677804439502</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0803114885434691</v>
+        <v>-0.05140572902079876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007095611227396012</v>
+        <v>0.0144533498043489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.008820550281872603</v>
+        <v>-0.005259703255792701</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03235676583303194</v>
+        <v>-0.03100986827339087</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1758480406844051</v>
+        <v>0.1542943111974547</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4129421988723853</v>
+        <v>0.4028946408064851</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4237349096323387</v>
+        <v>0.3831665822628667</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9613072753408778</v>
+        <v>0.8912310188824075</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.368793119905722</v>
+        <v>0.3678165113376622</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3165019371345623</v>
+        <v>0.3349145251420574</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3531139961955925</v>
+        <v>0.351540387354389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.293150611464367</v>
+        <v>0.3122144054529534</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2652016247106084</v>
+        <v>0.2696261052881275</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5038220169295536</v>
+        <v>0.4838583454015806</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.9011597905415281</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.607362513590616</v>
+        <v>2.607362513590611</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.343130030245764</v>
@@ -878,7 +878,7 @@
         <v>0.6589518467301297</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.349458602303335</v>
+        <v>3.349458602303337</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5177928104545796</v>
+        <v>0.9781360122384342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.158041320290716</v>
+        <v>-1.310900990889433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3354222672132052</v>
+        <v>0.66606560541954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.454505174686863</v>
+        <v>-1.692810821237532</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.117993981698457</v>
+        <v>-4.989310653703725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.391455223370132</v>
+        <v>-0.8687850037978442</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8452225293570931</v>
+        <v>0.8176866116736693</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.070966011916092</v>
+        <v>-2.087829138776705</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7434497838277524</v>
+        <v>0.7783778053922931</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.521142207382978</v>
+        <v>7.916152922065955</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.106199494674193</v>
+        <v>5.287546576933575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.153051542504228</v>
+        <v>7.640678968915631</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.620178565906749</v>
+        <v>6.396005777090033</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.920302337834848</v>
+        <v>3.30935668657155</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.366857568729547</v>
+        <v>6.629149387971927</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.915740274617486</v>
+        <v>6.168049994761809</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.160865976372878</v>
+        <v>3.376077802844005</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.770981357959262</v>
+        <v>5.810296961005667</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.03298160508451959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09542702818969501</v>
+        <v>0.09542702818969481</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1607767486997943</v>
@@ -983,7 +983,7 @@
         <v>0.03169010313942445</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1610811003792454</v>
+        <v>0.1610811003792455</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03050755195791846</v>
+        <v>0.06096502759473407</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07742353252733011</v>
+        <v>-0.081683960224722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02313728666883076</v>
+        <v>0.04164927183259953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08159633976099398</v>
+        <v>-0.05847354672311041</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1732750410129192</v>
+        <v>-0.1682555988905801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04513759763918164</v>
+        <v>-0.02953518132140162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03674952100826853</v>
+        <v>0.0367565680908393</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09668442603524861</v>
+        <v>-0.09535375409566266</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.03423771748504605</v>
+        <v>0.03447780328663218</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5801392515250184</v>
+        <v>0.6276491295485349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3978509788503891</v>
+        <v>0.4152523118858923</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5636889412365845</v>
+        <v>0.5948204959129304</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2623816912543507</v>
+        <v>0.2519985898830321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1183123778330316</v>
+        <v>0.1334874826782185</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2544588797006483</v>
+        <v>0.2688225916643615</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.302824593599902</v>
+        <v>0.321583481892968</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1597393603288512</v>
+        <v>0.1772457017355049</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2960247876268694</v>
+        <v>0.2976345480550972</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.62259617679701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.025663594504899</v>
+        <v>3.025663594504907</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.658479400657032</v>
@@ -1092,7 +1092,7 @@
         <v>-3.992946749229759</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4554187852811198</v>
+        <v>0.4554187852811253</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.94740868627029</v>
+        <v>-7.112080150685361</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.7313539890357</v>
+        <v>-6.588438862132244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.308676341740117</v>
+        <v>-1.14382404842969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.555792534082969</v>
+        <v>-7.120344886863367</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.770504693217049</v>
+        <v>-10.35829084077102</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.461563249785001</v>
+        <v>-6.560423804510279</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.068226665560415</v>
+        <v>-5.97667578940714</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.989720402176598</v>
+        <v>-7.160676143638012</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.65526214629181</v>
+        <v>-2.446672266764348</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.359232335350334</v>
+        <v>0.9840389210389137</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.29307842009397</v>
+        <v>1.064905041477864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.198969114608361</v>
+        <v>7.097242690677947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.120632330798854</v>
+        <v>2.456057270784413</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.007909940944351</v>
+        <v>-0.6593855856537321</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.396981004760551</v>
+        <v>2.221656918987438</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.425146059710504</v>
+        <v>0.2637591021066675</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.8941336963440288</v>
+        <v>-0.9042053099008733</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.490428228199832</v>
+        <v>3.655118889425561</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1519974869203765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1753580161139744</v>
+        <v>0.1753580161139749</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.09254816975441925</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1735141026249421</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.01979029193460644</v>
+        <v>0.01979029193460667</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3601937140252333</v>
+        <v>-0.3659908246267035</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3508749680913589</v>
+        <v>-0.337960126683245</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0681737760685633</v>
+        <v>-0.0565044122222411</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2424369232384871</v>
+        <v>-0.226704352686078</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3208061602193818</v>
+        <v>-0.3285423506361045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2026240468881535</v>
+        <v>-0.2075316115313183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2442839824887755</v>
+        <v>-0.2418888976813665</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2865112095921266</v>
+        <v>-0.2909420592730158</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1057901306979192</v>
+        <v>-0.1003293723377193</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08996133242353586</v>
+        <v>0.0707821018182726</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08619999271188396</v>
+        <v>0.07473688357696814</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.480782587742933</v>
+        <v>0.4667714896182918</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07943545030379183</v>
+        <v>0.0936623044325869</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.03554855145595312</v>
+        <v>-0.01568326372995817</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09159958496769882</v>
+        <v>0.08610128297308785</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02025819689479424</v>
+        <v>0.0102468002700528</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.04363525767923685</v>
+        <v>-0.04410782278142667</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1630474939636541</v>
+        <v>0.1717695013419115</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.595010705814359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.836494808319815</v>
+        <v>5.836494808319823</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.436068600161107</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3010643612243023</v>
+        <v>0.5352483545403014</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.091810629734919</v>
+        <v>-1.655900970077993</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.377680723239965</v>
+        <v>2.231053147490609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4884390711691854</v>
+        <v>-0.6301856512451959</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.52790966209804</v>
+        <v>-4.903775797216413</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.844634773172596</v>
+        <v>2.64148349001802</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7856411235419152</v>
+        <v>1.062468214461316</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.156485021540793</v>
+        <v>-2.125271712489686</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.742784496222705</v>
+        <v>3.541559975304109</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.240548766085424</v>
+        <v>7.741846022593671</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.596388931648679</v>
+        <v>4.775624804197365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.186155634073469</v>
+        <v>8.955424110710544</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.307468398242846</v>
+        <v>7.349196756351131</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.235136507119412</v>
+        <v>3.220755780495006</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.24479625215894</v>
+        <v>10.41320086518065</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.479657770816795</v>
+        <v>6.469551709542108</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.037357184509394</v>
+        <v>3.026030452074882</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.836463102932282</v>
+        <v>8.617106166373642</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1045017570795917</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3823949020730418</v>
+        <v>0.3823949020730423</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1318062137969226</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0163126430508143</v>
+        <v>0.02512320644893585</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1215662964792485</v>
+        <v>-0.1003862232046214</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1361041034924065</v>
+        <v>0.1277624130556811</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02099919799557063</v>
+        <v>-0.02791449527020577</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1652178151837391</v>
+        <v>-0.1742673383229987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09909670407066154</v>
+        <v>0.09660569731709343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0331173577222369</v>
+        <v>0.04414999911908863</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0995415559727247</v>
+        <v>-0.09673089622462452</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1687807880859591</v>
+        <v>0.1580470356925614</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5193157835389292</v>
+        <v>0.5493880841086924</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3278215283514867</v>
+        <v>0.3430874934717711</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6606831455371757</v>
+        <v>0.6366898524532686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2974117159476278</v>
+        <v>0.3023021876259205</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1364956872939014</v>
+        <v>0.1334537662107344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4159135238153036</v>
+        <v>0.4393630021725178</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3256534304404113</v>
+        <v>0.3287049348789215</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1533659348539741</v>
+        <v>0.1529666094850208</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4448201811857068</v>
+        <v>0.4420192008490874</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.8855076472124496</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.359872882654665</v>
+        <v>5.359872882654668</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.947626893096144</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1767882030215937</v>
+        <v>0.2740234042855134</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7173519045420093</v>
+        <v>-0.7347888571140629</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.518428827301654</v>
+        <v>3.319199351395594</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2964589550229607</v>
+        <v>-0.3433329502771088</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.108656739314462</v>
+        <v>-3.186828759853976</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9764183402867672</v>
+        <v>1.069503142525908</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6738361243809671</v>
+        <v>0.6537281013929498</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.531306428026426</v>
+        <v>-1.463494651621637</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.931191423218285</v>
+        <v>2.868157702731832</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.95316134842203</v>
+        <v>3.902976882367102</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.803473755734023</v>
+        <v>2.728535711896993</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.203986882244378</v>
+        <v>6.99548202093309</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.107281118693849</v>
+        <v>4.103351166892195</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.218305270938025</v>
+        <v>1.101280545515561</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.104397608764709</v>
+        <v>5.126288245974645</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.478364685287929</v>
+        <v>3.62341833009647</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.416755780637549</v>
+        <v>1.437177693863172</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.621107965895368</v>
+        <v>5.686744223029261</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.05604632325575269</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3392417548698307</v>
+        <v>0.3392417548698309</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07160937246665663</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.01045099338970387</v>
+        <v>0.01703627919177348</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04652313553805554</v>
+        <v>-0.04399538495871776</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2111815207353683</v>
+        <v>0.1968503259744641</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.009888855688663581</v>
+        <v>-0.01319934641342834</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1109457489840034</v>
+        <v>-0.1141916043893948</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03507646454872139</v>
+        <v>0.03807656430751655</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03034676536513298</v>
+        <v>0.02920977148579089</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.06867884132542047</v>
+        <v>-0.06520483670852073</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1332523500414848</v>
+        <v>0.1276232312219192</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2662596410325039</v>
+        <v>0.2657365396812272</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1894481395601813</v>
+        <v>0.1819509260219157</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4851348045914403</v>
+        <v>0.4691248855670914</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1589849424207679</v>
+        <v>0.1543372037658844</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04669749938636088</v>
+        <v>0.04228639573748089</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1977556628717791</v>
+        <v>0.1953524402953872</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1674084972195004</v>
+        <v>0.1734987694801216</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0672690109578076</v>
+        <v>0.06884848510313414</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2693697849993802</v>
+        <v>0.2729601875705007</v>
       </c>
     </row>
     <row r="34">
